--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H2">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>947.3562376939781</v>
+        <v>26.23437927019244</v>
       </c>
       <c r="R2">
-        <v>8526.206139245804</v>
+        <v>236.109413431732</v>
       </c>
       <c r="S2">
-        <v>0.2676182043532452</v>
+        <v>0.1355599251061239</v>
       </c>
       <c r="T2">
-        <v>0.2676182043532453</v>
+        <v>0.1355599251061239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H3">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I3">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J3">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>2.167497419990666</v>
+        <v>0.9670754150853332</v>
       </c>
       <c r="R3">
-        <v>19.507476779916</v>
+        <v>8.703678735767999</v>
       </c>
       <c r="S3">
-        <v>0.0006122952954742351</v>
+        <v>0.004997132559941823</v>
       </c>
       <c r="T3">
-        <v>0.0006122952954742353</v>
+        <v>0.004997132559941823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I4">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J4">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>2525.241686723682</v>
+        <v>156.7323590020058</v>
       </c>
       <c r="R4">
-        <v>22727.17518051313</v>
+        <v>1410.591231018052</v>
       </c>
       <c r="S4">
-        <v>0.7133542999663596</v>
+        <v>0.8098772465395624</v>
       </c>
       <c r="T4">
-        <v>0.7133542999663597</v>
+        <v>0.8098772465395623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I5">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J5">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>5.777609966605333</v>
@@ -756,10 +756,10 @@
         <v>51.99848969944799</v>
       </c>
       <c r="S5">
-        <v>0.001632114238757771</v>
+        <v>0.02985442751661754</v>
       </c>
       <c r="T5">
-        <v>0.001632114238757771</v>
+        <v>0.02985442751661754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H6">
         <v>22.56815</v>
       </c>
       <c r="I6">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J6">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>59.27573996672778</v>
+        <v>3.679024706988889</v>
       </c>
       <c r="R6">
-        <v>533.48165970055</v>
+        <v>33.1112223629</v>
       </c>
       <c r="S6">
-        <v>0.01674477504916145</v>
+        <v>0.01901048653015585</v>
       </c>
       <c r="T6">
-        <v>0.01674477504916145</v>
+        <v>0.01901048653015585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H7">
         <v>22.56815</v>
       </c>
       <c r="I7">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J7">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
         <v>0.1356195360666667</v>
@@ -880,10 +880,10 @@
         <v>1.2205758246</v>
       </c>
       <c r="S7">
-        <v>3.831109700161763E-05</v>
+        <v>0.0007007817475983966</v>
       </c>
       <c r="T7">
-        <v>3.831109700161763E-05</v>
+        <v>0.0007007817475983965</v>
       </c>
     </row>
   </sheetData>
